--- a/関連帳票/機能設計書/機能設計_概要.xlsx
+++ b/関連帳票/機能設計書/機能設計_概要.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82CE774-9732-4904-A761-277DB73E4BCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857567E5-030E-49BD-993F-194480D7263A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{285E3471-660C-4F9F-8D93-F07684873907}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{285E3471-660C-4F9F-8D93-F07684873907}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="7" r:id="rId1"/>
     <sheet name="機能概要" sheetId="6" r:id="rId2"/>
     <sheet name="画面フロー図" sheetId="5" r:id="rId3"/>
+    <sheet name="データフロー図" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>№</t>
     <phoneticPr fontId="4"/>
@@ -318,6 +319,30 @@
     <t>\director</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>データフロー図</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データフロー図</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新たにデータフロー図のシートを追加した</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2835,6 +2860,1452 @@
               </a:effectLst>
             </a:rPr>
             <a:t>変更画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563054</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>210038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AAED65-F812-4EFD-A99D-114919E7E09D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2544254" y="5239238"/>
+          <a:ext cx="5456746" cy="2685562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>検査機</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>（製品が検査機を通過した時点で出力される）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E85F0D-0A7E-48F9-97FC-AC3FB6777FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9579429" y="2254250"/>
+          <a:ext cx="5295446" cy="2127250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
+            <a:t>アプリにより加工</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>649827</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>210038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="コネクタ: 曲線 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6921A5F2-5615-4032-A0A2-F0358F7E1C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7127334" y="1555243"/>
+          <a:ext cx="1829288" cy="5538702"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252605</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEF2011-9C65-4BF7-8E64-8A3BCCB62770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3586355" y="2258147"/>
+          <a:ext cx="2541395" cy="1631228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>【csv】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>生産データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ライン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>製品品番</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="フローチャート: 磁気ディスク 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA7B63E-583D-4D30-8339-FC5E47FA554F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22320250" y="5651500"/>
+          <a:ext cx="5508625" cy="2873375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>データベース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="コネクタ: 曲線 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1E9572-20E3-473E-9246-CBF789546F04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="6"/>
+          <a:endCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14874875" y="3317875"/>
+          <a:ext cx="10199688" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>166879</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D39D73-D1B0-4E48-8F25-314594679145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16835629" y="476249"/>
+          <a:ext cx="6325996" cy="4238625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【csv】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生産データ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【xml】pcbd.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を参照）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ライン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>製品品番</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員情報（実装予定）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生産</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当日の合計生産数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>時間帯合計数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>時間の合計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タクトタイム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データの生成日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データの生成時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>477329</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1102B5-C3BE-459E-B1B1-3D69A8A07844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2458529" y="9220200"/>
+          <a:ext cx="5593271" cy="3454400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>バーコードスキャナ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>（社員がラインから出入りする際にバーコードを読み込ませデータが更新される）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>249429</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C17850A-2E4D-44FC-991A-9E980C624F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4872229" y="13824671"/>
+          <a:ext cx="3916171" cy="4117253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>【csv】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>社員情報（導入予定）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>工程１：社員番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>工程２：社員番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>工程３：社員番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>工程４：社員番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="楕円 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE51A37-649B-404E-93D9-B21F9481E378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10912929" y="13665200"/>
+          <a:ext cx="5295446" cy="2908300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
+            <a:t>アプリにより加工</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
+            <a:t>社員情報データを生産データと紐づける</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635539</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="コネクタ: 曲線 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED84BC2-61DB-40D0-A8A3-A68158526797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="58" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6710859" y="10917280"/>
+          <a:ext cx="2794000" cy="5610139"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="コネクタ: 曲線 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0954F4-BA72-436D-A563-16141150E7EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="6"/>
+          <a:endCxn id="52" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16208375" y="8524875"/>
+          <a:ext cx="10199688" cy="6594475"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 角を丸めた四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB54B946-28D9-4E0D-8199-66F958A1DF2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="412750"/>
+          <a:ext cx="6858000" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29167"/>
+            <a:gd name="adj2" fmla="val 141288"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>製品が検査機を通過するたびに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>csv</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>データが出力される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>501649</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="吹き出し: 角を丸めた四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CA9AB6-B256-4B0D-B3FD-4A24C7ADD51E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1835149" y="18599150"/>
+          <a:ext cx="8499475" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15278"/>
+            <a:gd name="adj2" fmla="val -231439"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>データの出力は更新があった時のみ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>（社員のラインからの出入りが無い限りデータは出力されない）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3144,7 +4615,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="A15:E17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -3191,10 +4662,16 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="15">
+        <v>43773</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" s="16"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
@@ -4212,7 +5689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC642B3-FD6F-4BE9-AC44-BE1784136442}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -4438,4 +5915,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2EBB55-FE17-40DE-B869-CF95E0C57A6E}">
+  <dimension ref="A1:AI6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AE76" sqref="AE76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:AI6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>